--- a/xlsx/a69_f34_dUPPachuca.xlsx
+++ b/xlsx/a69_f34_dUPPachuca.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\2do trimestre 2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\1ER ENTREGA 4TO TRIMESTRE 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -608,7 +608,7 @@
     <t>Secretaría Administrativa (UPP)</t>
   </si>
   <si>
-    <t>Las tablas adyacentes, criterios e hipervinculos que se observan vacios, es por que esta institución no genera inventario de bienes inmuebles, durante el periodo que se reporta</t>
+    <t>Las tablas adyacentes, criterios e hipervinculos que se observan vacios, es por que esta institución no genera inventario de bienes inmuebles, durante el periodo.</t>
   </si>
 </sst>
 </file>
@@ -682,19 +682,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -989,8 +990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF2" workbookViewId="0">
-      <selection activeCell="AI8" sqref="AI8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1029,7 +1030,7 @@
     <col min="32" max="32" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="20" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="32" customWidth="1"/>
+    <col min="35" max="35" width="76.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
@@ -1038,38 +1039,38 @@
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="5" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:35" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="8" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1286,43 +1287,43 @@
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="6"/>
-      <c r="AB6" s="6"/>
-      <c r="AC6" s="6"/>
-      <c r="AD6" s="6"/>
-      <c r="AE6" s="6"/>
-      <c r="AF6" s="6"/>
-      <c r="AG6" s="6"/>
-      <c r="AH6" s="6"/>
-      <c r="AI6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="7"/>
+      <c r="AH6" s="7"/>
+      <c r="AI6" s="7"/>
     </row>
     <row r="7" spans="1:35" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1431,54 +1432,54 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:35" ht="90" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+    <row r="8" spans="1:35" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>2020</v>
       </c>
-      <c r="B8" s="4">
-        <v>43831</v>
-      </c>
-      <c r="C8" s="4">
-        <v>44012</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="3"/>
-      <c r="AD8" s="3"/>
-      <c r="AE8" s="3"/>
-      <c r="AF8" s="3" t="s">
+      <c r="B8" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C8" s="3">
+        <v>44196</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="AG8" s="4">
-        <v>44022</v>
-      </c>
-      <c r="AH8" s="4">
-        <v>44022</v>
-      </c>
-      <c r="AI8" s="2" t="s">
+      <c r="AG8" s="3">
+        <v>44206</v>
+      </c>
+      <c r="AH8" s="3">
+        <v>44206</v>
+      </c>
+      <c r="AI8" s="5" t="s">
         <v>191</v>
       </c>
     </row>
@@ -1493,22 +1494,22 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F8:F201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F8:F47">
       <formula1>Hidden_15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J8:J201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J8:J47">
       <formula1>Hidden_29</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Q8:Q201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Q8:Q47">
       <formula1>Hidden_316</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="W8:W201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="W8:W47">
       <formula1>Hidden_422</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="X8:X201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="X8:X47">
       <formula1>Hidden_523</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Y8:Y201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Y8:Y47">
       <formula1>Hidden_624</formula1>
     </dataValidation>
   </dataValidations>
@@ -1521,137 +1522,140 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A2" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="4" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="4" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="4" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="4" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="4" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="4" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="4" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="4" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="4" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="4" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="4" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="4" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="4" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="4" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="4" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="4" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="4" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="4" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="4" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="4" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="4" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="4" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="4" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1667,209 +1671,212 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="4" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="4" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="4" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="4" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="4" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="4" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="4" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="4" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="4" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="4" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="4" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="4" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="4" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="4" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="4" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="4" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="4" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="4" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="4" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="4" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="4" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="4" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="4" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="4" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="4" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="4" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="4" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="4" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="4" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="4" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="4" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="4" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="4" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="4" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" s="4" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" s="4" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" s="4" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" s="4" t="s">
         <v>149</v>
       </c>
     </row>
@@ -1885,164 +1892,167 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="4" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="4" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="4" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="4" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="4" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="4" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="4" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="4" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="4" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="4" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="4" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="4" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="4" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="4" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="4" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="4" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="4" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="4" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="4" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="4" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="4" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="4" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="4" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="4" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="4" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="4" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="4" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="4" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="4" t="s">
         <v>181</v>
       </c>
     </row>
@@ -2060,12 +2070,12 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2081,19 +2091,22 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="4" t="s">
         <v>186</v>
       </c>
     </row>
@@ -2109,19 +2122,22 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="4" t="s">
         <v>189</v>
       </c>
     </row>

--- a/xlsx/a69_f34_dUPPachuca.xlsx
+++ b/xlsx/a69_f34_dUPPachuca.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\1ER ENTREGA 4TO TRIMESTRE 2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\2do Trimestre SIPOT 2021\Recepción 2do Trimestre\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -682,7 +682,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -692,10 +692,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -707,6 +703,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -991,7 +990,7 @@
   <dimension ref="A1:AI8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1030,7 +1029,7 @@
     <col min="32" max="32" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="20" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="76.5703125" customWidth="1"/>
+    <col min="35" max="35" width="51.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
@@ -1039,38 +1038,38 @@
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="6" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:35" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="9" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1287,43 +1286,43 @@
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
-      <c r="AC6" s="7"/>
-      <c r="AD6" s="7"/>
-      <c r="AE6" s="7"/>
-      <c r="AF6" s="7"/>
-      <c r="AG6" s="7"/>
-      <c r="AH6" s="7"/>
-      <c r="AI6" s="7"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="5"/>
     </row>
     <row r="7" spans="1:35" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1432,15 +1431,15 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:35" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B8" s="3">
-        <v>44013</v>
+        <v>44197</v>
       </c>
       <c r="C8" s="3">
-        <v>44196</v>
+        <v>44377</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1474,12 +1473,12 @@
         <v>190</v>
       </c>
       <c r="AG8" s="3">
-        <v>44206</v>
+        <v>44386</v>
       </c>
       <c r="AH8" s="3">
-        <v>44206</v>
-      </c>
-      <c r="AI8" s="5" t="s">
+        <v>44386</v>
+      </c>
+      <c r="AI8" s="9" t="s">
         <v>191</v>
       </c>
     </row>
@@ -1494,22 +1493,22 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F8:F47">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F8:F201">
       <formula1>Hidden_15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J8:J47">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J8:J201">
       <formula1>Hidden_29</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Q8:Q47">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Q8:Q201">
       <formula1>Hidden_316</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="W8:W47">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="W8:W201">
       <formula1>Hidden_422</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="X8:X47">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="X8:X201">
       <formula1>Hidden_523</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Y8:Y47">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Y8:Y201">
       <formula1>Hidden_624</formula1>
     </dataValidation>
   </dataValidations>
@@ -1522,140 +1521,137 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A26"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="A22" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="A23" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="A24" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="A25" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="A26" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1671,212 +1667,209 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="A22" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="A23" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="A24" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="A25" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="A26" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="A27" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+      <c r="A28" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="A29" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+      <c r="A30" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+      <c r="A31" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+      <c r="A32" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+      <c r="A33" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+      <c r="A34" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+      <c r="A35" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
+      <c r="A36" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+      <c r="A37" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+      <c r="A38" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
+      <c r="A39" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
+      <c r="A40" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
+      <c r="A41" t="s">
         <v>149</v>
       </c>
     </row>
@@ -1892,167 +1885,164 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="29.42578125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="A22" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="A23" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="A24" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="A25" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="A26" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="A27" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+      <c r="A28" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="A29" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+      <c r="A30" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+      <c r="A31" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+      <c r="A32" t="s">
         <v>181</v>
       </c>
     </row>
@@ -2070,12 +2060,12 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2091,22 +2081,19 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" t="s">
         <v>186</v>
       </c>
     </row>
@@ -2122,22 +2109,19 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" t="s">
         <v>189</v>
       </c>
     </row>

--- a/xlsx/a69_f34_dUPPachuca.xlsx
+++ b/xlsx/a69_f34_dUPPachuca.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\2do Trimestre SIPOT 2021\Recepción 2do Trimestre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2022\SIPOT\4to trimestre 2021\4to Trimestre SIPOT 2021 Pagina Oficial\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -682,31 +682,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -990,7 +984,7 @@
   <dimension ref="A1:AI8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1002,8 +996,8 @@
     <col min="5" max="5" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="43.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="52.28515625" customWidth="1"/>
-    <col min="9" max="9" width="54.7109375" customWidth="1"/>
+    <col min="8" max="8" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="48.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="50.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="36.140625" bestFit="1" customWidth="1"/>
@@ -1029,7 +1023,7 @@
     <col min="32" max="32" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="20" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="51.5703125" customWidth="1"/>
+    <col min="35" max="35" width="92" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
@@ -1038,38 +1032,38 @@
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="4" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="4" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:35" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
       <c r="G3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
     </row>
     <row r="4" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1286,43 +1280,43 @@
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="5"/>
-      <c r="AC6" s="5"/>
-      <c r="AD6" s="5"/>
-      <c r="AE6" s="5"/>
-      <c r="AF6" s="5"/>
-      <c r="AG6" s="5"/>
-      <c r="AH6" s="5"/>
-      <c r="AI6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="6"/>
+      <c r="AE6" s="6"/>
+      <c r="AF6" s="6"/>
+      <c r="AG6" s="6"/>
+      <c r="AH6" s="6"/>
+      <c r="AI6" s="6"/>
     </row>
     <row r="7" spans="1:35" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1431,54 +1425,54 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:35" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="8" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>2021</v>
       </c>
-      <c r="B8" s="3">
-        <v>44197</v>
-      </c>
-      <c r="C8" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
-      <c r="AA8" s="2"/>
-      <c r="AB8" s="2"/>
-      <c r="AC8" s="2"/>
-      <c r="AD8" s="2"/>
-      <c r="AE8" s="2"/>
-      <c r="AF8" s="2" t="s">
+      <c r="B8" s="2">
+        <v>44378</v>
+      </c>
+      <c r="C8" s="2">
+        <v>44561</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="AG8" s="3">
-        <v>44386</v>
-      </c>
-      <c r="AH8" s="3">
-        <v>44386</v>
-      </c>
-      <c r="AI8" s="9" t="s">
+      <c r="AG8" s="2">
+        <v>44571</v>
+      </c>
+      <c r="AH8" s="2">
+        <v>44571</v>
+      </c>
+      <c r="AI8" s="4" t="s">
         <v>191</v>
       </c>
     </row>
@@ -1493,27 +1487,27 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F8:F201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F8:F90">
       <formula1>Hidden_15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J8:J201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J8:J90">
       <formula1>Hidden_29</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Q8:Q201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Q8:Q90">
       <formula1>Hidden_316</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="W8:W201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="W8:W90">
       <formula1>Hidden_422</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="X8:X201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="X8:X90">
       <formula1>Hidden_523</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Y8:Y201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Y8:Y90">
       <formula1>Hidden_624</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/xlsx/a69_f34_dUPPachuca.xlsx
+++ b/xlsx/a69_f34_dUPPachuca.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2022\SIPOT\4to trimestre 2021\4to Trimestre SIPOT 2021 Pagina Oficial\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maydeli\Documents\TRANSPARENCIA\UPP 2DO TRI 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
+    <workbookView xWindow="390" yWindow="555" windowWidth="9015" windowHeight="5835"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -608,14 +608,14 @@
     <t>Secretaría Administrativa (UPP)</t>
   </si>
   <si>
-    <t>Las tablas adyacentes, criterios e hipervinculos que se observan vacios, es por que esta institución no genera inventario de bienes inmuebles, durante el periodo.</t>
+    <t xml:space="preserve">La Universidad Politécnica de Pachuca, no cuenta con inventario de bienes inmuebles. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -636,6 +636,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -655,7 +662,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -678,21 +685,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
@@ -701,6 +718,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -729,39 +752,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -840,142 +863,166 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
@@ -984,7 +1031,7 @@
   <dimension ref="A1:AI8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1023,7 +1070,7 @@
     <col min="32" max="32" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="20" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="92" customWidth="1"/>
+    <col min="35" max="35" width="47.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
@@ -1032,38 +1079,38 @@
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="5" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:35" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1280,43 +1327,43 @@
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="6"/>
-      <c r="AB6" s="6"/>
-      <c r="AC6" s="6"/>
-      <c r="AD6" s="6"/>
-      <c r="AE6" s="6"/>
-      <c r="AF6" s="6"/>
-      <c r="AG6" s="6"/>
-      <c r="AH6" s="6"/>
-      <c r="AI6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="7"/>
+      <c r="AH6" s="7"/>
+      <c r="AI6" s="7"/>
     </row>
     <row r="7" spans="1:35" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1426,53 +1473,53 @@
       </c>
     </row>
     <row r="8" spans="1:35" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B8" s="2">
-        <v>44378</v>
-      </c>
-      <c r="C8" s="2">
-        <v>44561</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="3"/>
-      <c r="AD8" s="3"/>
-      <c r="AE8" s="3"/>
-      <c r="AF8" s="3" t="s">
+      <c r="A8" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B8" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C8" s="3">
+        <v>44742</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="AG8" s="2">
-        <v>44571</v>
-      </c>
-      <c r="AH8" s="2">
-        <v>44571</v>
-      </c>
-      <c r="AI8" s="4" t="s">
+      <c r="AG8" s="3">
+        <v>44753</v>
+      </c>
+      <c r="AH8" s="3">
+        <v>44753</v>
+      </c>
+      <c r="AI8" s="5" t="s">
         <v>191</v>
       </c>
     </row>
@@ -1487,27 +1534,26 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F8:F90">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F8:F201">
       <formula1>Hidden_15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J8:J90">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J8:J201">
       <formula1>Hidden_29</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Q8:Q90">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Q8:Q201">
       <formula1>Hidden_316</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="W8:W90">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="W8:W201">
       <formula1>Hidden_422</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="X8:X90">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="X8:X201">
       <formula1>Hidden_523</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Y8:Y90">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Y8:Y201">
       <formula1>Hidden_624</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/xlsx/a69_f34_dUPPachuca.xlsx
+++ b/xlsx/a69_f34_dUPPachuca.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maydeli\Documents\TRANSPARENCIA\UPP 2DO TRI 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4to Trimestre 2022\Recepción de Información\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD34D907-57BB-4209-84DF-9DC89EF3ABBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="555" windowWidth="9015" windowHeight="5835"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -614,7 +615,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -817,6 +818,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -852,6 +870,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1027,11 +1062,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1477,10 +1512,10 @@
         <v>2022</v>
       </c>
       <c r="B8" s="3">
-        <v>44562</v>
+        <v>44743</v>
       </c>
       <c r="C8" s="3">
-        <v>44742</v>
+        <v>44926</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1514,10 +1549,10 @@
         <v>190</v>
       </c>
       <c r="AG8" s="3">
-        <v>44753</v>
+        <v>44936</v>
       </c>
       <c r="AH8" s="3">
-        <v>44753</v>
+        <v>44936</v>
       </c>
       <c r="AI8" s="5" t="s">
         <v>191</v>
@@ -1534,22 +1569,22 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F8:F201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F8:F201" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>Hidden_15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J8:J201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J8:J201" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>Hidden_29</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Q8:Q201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Q8:Q201" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>Hidden_316</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="W8:W201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="W8:W201" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>Hidden_422</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="X8:X201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="X8:X201" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>Hidden_523</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Y8:Y201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Y8:Y201" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>Hidden_624</formula1>
     </dataValidation>
   </dataValidations>
@@ -1558,7 +1593,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1701,7 +1736,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1919,7 +1954,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2092,7 +2127,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2115,7 +2150,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2143,7 +2178,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/xlsx/a69_f34_dUPPachuca.xlsx
+++ b/xlsx/a69_f34_dUPPachuca.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4to Trimestre 2022\Recepción de Información\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\2023\SIPOT\Vo. Bo. Uno 2do Tri 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD34D907-57BB-4209-84DF-9DC89EF3ABBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB31DA2A-AE07-4B1C-B6D2-C8B948D0B645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -606,17 +606,17 @@
     <t>Terreno</t>
   </si>
   <si>
-    <t>Secretaría Administrativa (UPP)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La Universidad Politécnica de Pachuca, no cuenta con inventario de bienes inmuebles. </t>
+    <t xml:space="preserve">Departamento de Infraestructura (UPP) </t>
+  </si>
+  <si>
+    <t>La Universidad Politécnica de Pachuca, no cuenta con inventario de bienes inmuebles para el periodo reportado. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -629,13 +629,11 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -643,6 +641,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -687,12 +691,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -704,14 +710,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -719,7 +727,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1065,8 +1073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="AF2" workbookViewId="0">
+      <selection activeCell="AF11" sqref="AF11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1105,7 +1113,7 @@
     <col min="32" max="32" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="20" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="47.85546875" customWidth="1"/>
+    <col min="35" max="35" width="34.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
@@ -1130,7 +1138,7 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
     </row>
-    <row r="3" spans="1:35" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
@@ -1507,52 +1515,52 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:35" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B8" s="3">
-        <v>44743</v>
-      </c>
-      <c r="C8" s="3">
-        <v>44926</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
-      <c r="AA8" s="2"/>
-      <c r="AB8" s="2"/>
-      <c r="AC8" s="2"/>
-      <c r="AD8" s="2"/>
-      <c r="AE8" s="2"/>
+    <row r="8" spans="1:35" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B8" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C8" s="2">
+        <v>45107</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
       <c r="AF8" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="AG8" s="3">
-        <v>44936</v>
-      </c>
-      <c r="AH8" s="3">
-        <v>44936</v>
+      <c r="AG8" s="2">
+        <v>45117</v>
+      </c>
+      <c r="AH8" s="2">
+        <v>45117</v>
       </c>
       <c r="AI8" s="5" t="s">
         <v>191</v>
@@ -1569,26 +1577,27 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F8:F201" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F8:F109" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>Hidden_15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J8:J201" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J8:J109" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>Hidden_29</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Q8:Q201" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Q8:Q109" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>Hidden_316</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="W8:W201" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="W8:W109" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>Hidden_422</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="X8:X201" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="X8:X109" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>Hidden_523</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Y8:Y201" xr:uid="{00000000-0002-0000-0000-000005000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Y8:Y109" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>Hidden_624</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
